--- a/frontend/public/bulkproduct.xlsx
+++ b/frontend/public/bulkproduct.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>sr.no</t>
   </si>
@@ -67,13 +67,34 @@
   </si>
   <si>
     <t>minidiscription</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTT4WYhNXhKvDzlrIsfnL6KQMD0AoNmF59E6g&amp;usqp=CAU,https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTfgx26h8tKj1xCQEhupFAixueq4vbOxJ_uxQ&amp;usqp=CAU</t>
+  </si>
+  <si>
+    <t>Saftey</t>
+  </si>
+  <si>
+    <t>ey-protection</t>
+  </si>
+  <si>
+    <t>Udyogi</t>
+  </si>
+  <si>
+    <t>pcs</t>
+  </si>
+  <si>
+    <t>Mini Description about product</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +107,14 @@
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -105,10 +134,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -116,8 +146,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -419,15 +456,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" customWidth="1"/>
     <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.140625" bestFit="1" customWidth="1"/>
@@ -492,30 +529,80 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C2"/>
+    <row r="2" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>50000</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2">
+        <v>123456</v>
+      </c>
+      <c r="I2">
+        <v>123456</v>
+      </c>
+      <c r="J2">
+        <v>5000</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <v>15</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>8</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C3"/>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C4"/>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C5"/>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C6"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C7"/>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C8"/>
+      <c r="C8" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
